--- a/Python-Code/相关系数表.xlsx
+++ b/Python-Code/相关系数表.xlsx
@@ -1019,12 +1019,12 @@
   <dimension ref="A1:D3479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="27.8846153846154" customWidth="1"/>
+    <col min="2" max="2" width="22.5961538461538" customWidth="1"/>
     <col min="3" max="3" width="22.1057692307692" customWidth="1"/>
     <col min="4" max="4" width="27.4038461538462" customWidth="1"/>
   </cols>
